--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
@@ -17,11 +17,11 @@
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$A$1:$N$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Catálogos!$A$1:$O$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,6 +32,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Iris Lechuga</author>
+  </authors>
+  <commentList>
+    <comment ref="C37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Iris Lechuga:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Submenú eliminado de plataforma </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADOLFO ANGEL GARCIA</author>
@@ -116,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="162">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -385,20 +419,6 @@
     <t xml:space="preserve">Ingresar apartado configuración </t>
   </si>
   <si>
-    <t>No permite agregar un nuevo registro arroja mensaje de error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se intento borrar un registro ya realizado previamente pero no se guardaron los cambios y no se borro el registro requerido 
- Envía mensaje de confirmación exitosa 
-Ajustar el color del botón Eliminar 
-Borrar la el apostrofe que esta antes del signo de interrogación cerrado </t>
-  </si>
-  <si>
-    <t>Se intento editar un registro ya realizado previamente pero no se guardaron los cambios 
- Envía mensaje de confirmación exitosa 
-Ajustar el color del botón editar</t>
-  </si>
-  <si>
     <t>No presenta errores ortograficos</t>
   </si>
   <si>
@@ -414,13 +434,7 @@
     <t>Ajustar color en los Botones Editar y Eliminar Registros</t>
   </si>
   <si>
-    <t>Ajustar redacción mensajes de alertas</t>
-  </si>
-  <si>
     <t>https://srpu.atlassian.net/browse/SGCM-489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tooltip descriptivo </t>
   </si>
   <si>
     <t>Se eliminó elemento que ya había sigo  previamente agregado (Se eliminó China) 
@@ -496,9 +510,6 @@
     <t>https://srpu.atlassian.net/browse/SGCM-496</t>
   </si>
   <si>
-    <t xml:space="preserve">No elimino el elemento seleccionado </t>
-  </si>
-  <si>
     <t>https://srpu.atlassian.net/browse/SGCM-497</t>
   </si>
   <si>
@@ -508,10 +519,6 @@
     <t xml:space="preserve">No se encuentran errores de ortografía </t>
   </si>
   <si>
-    <t>Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar 
-Dice: Error Ingrese nuevo elemento</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajustar el color del botón Eliminar </t>
   </si>
   <si>
@@ -522,10 +529,6 @@
   </si>
   <si>
     <t xml:space="preserve">Periodicidad del Pago </t>
-  </si>
-  <si>
-    <t>Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar
-Dice: Error Ingrese nuevo elemento</t>
   </si>
   <si>
     <t>Al editar un elemento se detecta que no tiene un margen de numero de palabras para redacta y al ser muy extenso la pierde la visibilidad de la tabla en pantalla</t>
@@ -605,13 +608,79 @@
   </si>
   <si>
     <t xml:space="preserve">Apartado de Configuración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrega nuevo regristro </t>
+  </si>
+  <si>
+    <t>Edita elemento /Ajustar color del botón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Elemento Ajusta color del botón </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de Retesting Jira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca Elementos correctamente , agregar un tooltip descriptivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar elementos </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar redacción mensajes de alertas / color del botón </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-594</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-595</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGrega nuevo regristro </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srpu.atlassian.net/browse/SGCM-600 </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-601</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-602</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-603</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-605</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-606</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,8 +758,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +789,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -928,7 +1022,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,16 +1064,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,6 +1126,68 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1071,7 +1227,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matriz de Pruebas Configuraciones.xlsx]GRAFICOS!Tabla dinámica1</c:name>
+    <c:name>[Matriz de Pruebas Configuración.xlsx]GRAFICOS!Tabla dinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1163,7 +1319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1657,9 +1812,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1723,9 +1876,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1789,9 +1940,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1912,9 +2061,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1935,9 +2082,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -1958,9 +2103,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2193,7 +2336,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matriz de Pruebas Configuraciones.xlsx]GRAFICOS!Tabla dinámica2</c:name>
+    <c:name>[Matriz de Pruebas Configuración.xlsx]GRAFICOS!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2223,7 +2366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2618,7 +2760,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2709,7 +2850,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matriz de Pruebas Configuraciones.xlsx]GRAFICOS!Tabla dinámica3</c:name>
+    <c:name>[Matriz de Pruebas Configuración.xlsx]GRAFICOS!Tabla dinámica3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2739,7 +2880,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3382,6 +3522,44 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3774,7 +3952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5848,7 +6025,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45132.664130787038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N43" sheet="Catálogos"/>
+    <worksheetSource ref="A6:O48" sheet="Catálogos"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -6513,7 +6690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6585,7 +6762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6694,7 +6871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:E51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -6760,7 +6937,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6790,6 +6967,18 @@
           </reference>
           <reference field="11" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -7051,11 +7240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7071,11 +7260,11 @@
     <col min="10" max="10" width="21.25" customWidth="1"/>
     <col min="11" max="11" width="23.875" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="27.625" customWidth="1"/>
-    <col min="14" max="14" width="30.375" customWidth="1"/>
+    <col min="13" max="14" width="27.625" customWidth="1"/>
+    <col min="15" max="15" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>60</v>
       </c>
@@ -7092,8 +7281,9 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7108,8 +7298,9 @@
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>59</v>
       </c>
@@ -7128,8 +7319,9 @@
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -7144,15 +7336,16 @@
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
@@ -7164,8 +7357,9 @@
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="42"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
@@ -7206,10 +7400,13 @@
         <v>13</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7232,18 +7429,19 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="14"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="1">
+      <c r="N7" s="15"/>
+      <c r="O7" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7266,18 +7464,19 @@
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="1">
+      <c r="N8" s="15"/>
+      <c r="O8" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7300,18 +7499,19 @@
         <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J9" s="2"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="1">
+      <c r="N9" s="15"/>
+      <c r="O9" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7334,18 +7534,19 @@
         <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="J10" s="2"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="1">
+      <c r="N10" s="15"/>
+      <c r="O10" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -7368,18 +7569,19 @@
         <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="2"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="1">
+      <c r="N11" s="15"/>
+      <c r="O11" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7402,920 +7604,914 @@
         <v>19</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>88</v>
       </c>
       <c r="J12" s="2"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="1">
+      <c r="N12" s="15"/>
+      <c r="O12" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+    <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53">
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="1">
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59">
         <v>45127</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="3" t="s">
+    <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" s="62">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="60"/>
+      <c r="O15" s="62"/>
+    </row>
+    <row r="16" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="60"/>
+      <c r="O16" s="62"/>
+    </row>
+    <row r="17" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
+        <v>8</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="1">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>8</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" t="s">
         <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="1">
+        <v>37</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="62">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="62"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="62"/>
+    </row>
+    <row r="24" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>9</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="1">
         <v>45128</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
-        <v>9</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="3" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="G26" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
         <v>78</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" t="s">
-        <v>80</v>
       </c>
       <c r="K26" t="s">
         <v>46</v>
       </c>
       <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" s="62">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="3" t="s">
+      <c r="M27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="61"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="I27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="G30" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O30" s="62"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="25">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N29" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N30" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="231" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="N31" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="62"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
-        <v>11</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>17</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="62">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>144</v>
+        <v>33</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="62"/>
+    </row>
+    <row r="34" spans="1:15" ht="231" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
-        <v>103</v>
+      <c r="H34" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="N34" s="43"/>
+      <c r="O34" s="62"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>104</v>
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N35" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="44">
+        <v>11</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="65">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N38" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="O38" s="47"/>
+    </row>
+    <row r="39" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" s="64"/>
+      <c r="O39" s="47"/>
+    </row>
+    <row r="40" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G40" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H40" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="64"/>
+      <c r="O40" s="47"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="47"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>12</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N36" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
-        <v>12</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="N43" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="O43" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39" t="s">
-        <v>46</v>
-      </c>
-      <c r="L39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N39" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
         <v>79</v>
-      </c>
-      <c r="K40" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N40" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N41" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
-        <v>13</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" t="s">
-        <v>78</v>
       </c>
       <c r="K44" t="s">
         <v>46</v>
@@ -8324,29 +8520,28 @@
         <v>36</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="N44" s="61"/>
+      <c r="O44" s="66"/>
+    </row>
+    <row r="45" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="55" t="s">
         <v>33</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
@@ -8355,105 +8550,92 @@
         <v>36</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="N45" s="61"/>
+      <c r="O45" s="66"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>109</v>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N46" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="25">
-        <v>14</v>
-      </c>
-      <c r="B48" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="50">
+        <v>13</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="22" t="s">
+      <c r="C48" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="3" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="55" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
         <v>78</v>
@@ -8465,26 +8647,29 @@
         <v>36</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N49" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="O49" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H50" t="s">
-        <v>112</v>
+      <c r="H50" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="I50" t="s">
         <v>79</v>
@@ -8496,26 +8681,25 @@
         <v>36</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N50" s="1">
-        <v>45128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="43"/>
+      <c r="O50" s="66"/>
+    </row>
+    <row r="51" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="55" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I51" t="s">
         <v>80</v>
@@ -8527,74 +8711,73 @@
         <v>36</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N51" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" s="43"/>
+      <c r="O51" s="66"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="25">
-        <v>15</v>
-      </c>
-      <c r="B53" s="23" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="53">
+        <v>14</v>
+      </c>
+      <c r="B53" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="22" t="s">
+      <c r="C53" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="3" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>116</v>
+      <c r="G54" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
       </c>
       <c r="I54" t="s">
         <v>78</v>
@@ -8606,26 +8789,29 @@
         <v>36</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N54" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="O54" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="53"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>117</v>
+      <c r="H55" t="s">
+        <v>142</v>
       </c>
       <c r="I55" t="s">
         <v>79</v>
@@ -8637,26 +8823,25 @@
         <v>36</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N55" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N55" s="43"/>
+      <c r="O55" s="66"/>
+    </row>
+    <row r="56" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H56" t="s">
-        <v>118</v>
+      <c r="H56" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="I56" t="s">
         <v>80</v>
@@ -8668,108 +8853,95 @@
         <v>36</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N56" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N56" s="43"/>
+      <c r="O56" s="66"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="I57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="25">
-        <v>16</v>
-      </c>
-      <c r="B58" s="23" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>15</v>
+      </c>
+      <c r="B59" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="22" t="s">
+      <c r="C59" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E59" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H58" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="3" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="G60" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" t="s">
         <v>78</v>
-      </c>
-      <c r="K59" t="s">
-        <v>46</v>
-      </c>
-      <c r="L59" t="s">
-        <v>36</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I60" t="s">
-        <v>79</v>
       </c>
       <c r="K60" t="s">
         <v>46</v>
@@ -8778,29 +8950,32 @@
         <v>36</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N60" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="N60" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="O60" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="H61" t="s">
-        <v>122</v>
+      <c r="H61" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s">
         <v>46</v>
@@ -8809,139 +8984,125 @@
         <v>36</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N61" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N61" s="43"/>
+      <c r="O61" s="66"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+      <c r="K62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N62" s="43"/>
+      <c r="O62" s="66"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
+        <v>137</v>
+      </c>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="25">
+      <c r="G64" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>146</v>
+      </c>
+      <c r="I64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="53">
+        <v>16</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="F65" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G65" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H63" t="s">
-        <v>144</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="3" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s">
-        <v>114</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="G66" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" t="s">
         <v>78</v>
-      </c>
-      <c r="K64" t="s">
-        <v>46</v>
-      </c>
-      <c r="L64" t="s">
-        <v>36</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N64" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" t="s">
-        <v>46</v>
-      </c>
-      <c r="L65" t="s">
-        <v>36</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N65" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I66" t="s">
-        <v>80</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
@@ -8950,158 +9111,159 @@
         <v>36</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N66" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" t="s">
+        <v>115</v>
+      </c>
+      <c r="N66" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="53"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N67" s="43"/>
+      <c r="O67" s="66"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="53"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N68" s="43"/>
+      <c r="O68" s="66"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="53"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H67" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H69" t="s">
+        <v>137</v>
+      </c>
+      <c r="I69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="53"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H68" t="s">
-        <v>145</v>
-      </c>
-      <c r="I68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="25">
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="53">
+        <v>17</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="G71" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H69" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="3" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="53"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="G72" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" t="s">
         <v>78</v>
-      </c>
-      <c r="K70" t="s">
-        <v>46</v>
-      </c>
-      <c r="L70" t="s">
-        <v>36</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N70" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" t="s">
-        <v>79</v>
-      </c>
-      <c r="K71" t="s">
-        <v>46</v>
-      </c>
-      <c r="L71" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71" t="s">
-        <v>129</v>
-      </c>
-      <c r="N71" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I72" t="s">
-        <v>80</v>
       </c>
       <c r="K72" t="s">
         <v>46</v>
@@ -9109,346 +9271,372 @@
       <c r="L72" t="s">
         <v>36</v>
       </c>
-      <c r="M72" t="s">
-        <v>129</v>
-      </c>
-      <c r="N72" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="3" t="s">
+      <c r="M72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O72" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="53"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" t="s">
+        <v>79</v>
+      </c>
+      <c r="K73" t="s">
+        <v>46</v>
+      </c>
+      <c r="L73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N73" s="43"/>
+      <c r="O73" s="66"/>
+    </row>
+    <row r="74" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="53"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" t="s">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" t="s">
+        <v>36</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N74" s="43"/>
+      <c r="O74" s="66"/>
+    </row>
+    <row r="75" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>120</v>
+      </c>
+      <c r="I75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="53"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G76" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H76" t="s">
+        <v>137</v>
+      </c>
+      <c r="I76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="53"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="I73" t="s">
+      <c r="G77" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="53">
+        <v>18</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>140</v>
+      </c>
+      <c r="I79" t="s">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s">
+        <v>46</v>
+      </c>
+      <c r="L79" t="s">
+        <v>36</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N79" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="O79" s="66">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="53"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80" t="s">
+        <v>46</v>
+      </c>
+      <c r="L80" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" t="s">
+        <v>121</v>
+      </c>
+      <c r="N80" s="43"/>
+      <c r="O80" s="66"/>
+    </row>
+    <row r="81" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="53"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" t="s">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" t="s">
+        <v>121</v>
+      </c>
+      <c r="N81" s="43"/>
+      <c r="O81" s="66"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="53"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>137</v>
+      </c>
+      <c r="I82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="55" t="s">
         <v>19</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s">
-        <v>144</v>
-      </c>
-      <c r="I74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" t="s">
-        <v>114</v>
-      </c>
-      <c r="I75" t="s">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s">
-        <v>46</v>
-      </c>
-      <c r="L75" t="s">
-        <v>36</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N75" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I76" t="s">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s">
-        <v>46</v>
-      </c>
-      <c r="L76" t="s">
-        <v>36</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N76" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" t="s">
-        <v>114</v>
-      </c>
-      <c r="I77" t="s">
-        <v>80</v>
-      </c>
-      <c r="K77" t="s">
-        <v>46</v>
-      </c>
-      <c r="L77" t="s">
-        <v>36</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="N77" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" t="s">
-        <v>145</v>
-      </c>
-      <c r="I78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="25">
-        <v>20</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>144</v>
-      </c>
-      <c r="I79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s">
-        <v>132</v>
-      </c>
-      <c r="I82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
       </c>
       <c r="H83" t="s">
         <v>146</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="24"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="25">
+        <v>19</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="F84" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="25">
-        <v>21</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>17</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="25"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>77</v>
-      </c>
-      <c r="N85" s="1">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" t="s">
+        <v>36</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N85" s="6"/>
+      <c r="O85" s="1">
         <v>45131</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="23"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
       <c r="F86" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
       </c>
-      <c r="H86" t="s">
-        <v>131</v>
+      <c r="H86" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K86" t="s">
         <v>46</v>
@@ -9457,29 +9645,30 @@
         <v>36</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N86" s="1">
+        <v>122</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="1">
         <v>45131</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="23"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
       <c r="F87" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s">
         <v>46</v>
@@ -9488,67 +9677,346 @@
         <v>36</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N87" s="1">
+        <v>122</v>
+      </c>
+      <c r="N87" s="6"/>
+      <c r="O87" s="1">
         <v>45131</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="25"/>
       <c r="B88" s="23"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I88" t="s">
-        <v>80</v>
-      </c>
-      <c r="K88" t="s">
-        <v>46</v>
-      </c>
-      <c r="L88" t="s">
-        <v>36</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N88" s="1">
-        <v>45131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="25"/>
       <c r="B89" s="23"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
       <c r="F89" s="3" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="25">
+        <v>20</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="25"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="25"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
+        <v>125</v>
+      </c>
+      <c r="I92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="25"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
+        <v>124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="25"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="25"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>137</v>
+      </c>
+      <c r="I95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="25"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I89" t="s">
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="22">
+        <v>21</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I97" t="s">
+        <v>77</v>
+      </c>
+      <c r="O97" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s">
+        <v>123</v>
+      </c>
+      <c r="I98" t="s">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" t="s">
+        <v>36</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N98" s="6"/>
+      <c r="O98" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" t="s">
+        <v>128</v>
+      </c>
+      <c r="I99" t="s">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" t="s">
+        <v>36</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N99" s="6"/>
+      <c r="O99" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s">
+        <v>46</v>
+      </c>
+      <c r="L100" t="s">
+        <v>36</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N100" s="6"/>
+      <c r="O100" s="1">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s">
+        <v>137</v>
+      </c>
+      <c r="I101" t="s">
         <v>81</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O101" s="1">
         <v>45131</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N20">
+  <autoFilter ref="A1:O21">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -9562,123 +10030,163 @@
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="82">
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="E79:E84"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
+  <mergeCells count="107">
+    <mergeCell ref="N72:N74"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="N54:N56"/>
+    <mergeCell ref="O54:O56"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O37:O41"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="C48:C52"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="E48:E52"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="E28:E32"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="E71:E77"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M14" r:id="rId2"/>
     <hyperlink ref="M15" r:id="rId3"/>
-    <hyperlink ref="M21" r:id="rId4"/>
-    <hyperlink ref="M24" r:id="rId5"/>
-    <hyperlink ref="M25:M26" r:id="rId6" display="https://srpu.atlassian.net/browse/SGCM-489"/>
-    <hyperlink ref="M29" r:id="rId7"/>
-    <hyperlink ref="M30:M31" r:id="rId8" display="https://srpu.atlassian.net/browse/SGCM-492"/>
-    <hyperlink ref="M34" r:id="rId9"/>
-    <hyperlink ref="M35:M36" r:id="rId10" display="https://srpu.atlassian.net/browse/SGCM-493"/>
-    <hyperlink ref="M39" r:id="rId11"/>
-    <hyperlink ref="M40:M41" r:id="rId12" display="https://srpu.atlassian.net/browse/SGCM-494"/>
-    <hyperlink ref="M44" r:id="rId13"/>
-    <hyperlink ref="M45:M46" r:id="rId14" display="https://srpu.atlassian.net/browse/SGCM-496"/>
-    <hyperlink ref="M49" r:id="rId15"/>
-    <hyperlink ref="M50:M51" r:id="rId16" display="https://srpu.atlassian.net/browse/SGCM-497"/>
-    <hyperlink ref="M54" r:id="rId17"/>
-    <hyperlink ref="M55:M56" r:id="rId18" display="https://srpu.atlassian.net/browse/SGCM-498"/>
-    <hyperlink ref="M59" r:id="rId19"/>
-    <hyperlink ref="M60:M61" r:id="rId20" display="https://srpu.atlassian.net/browse/SGCM-499"/>
-    <hyperlink ref="M64" r:id="rId21"/>
-    <hyperlink ref="M65:M66" r:id="rId22" display="https://srpu.atlassian.net/browse/SGCM-500"/>
-    <hyperlink ref="M70" r:id="rId23"/>
-    <hyperlink ref="M75" r:id="rId24"/>
-    <hyperlink ref="M76" r:id="rId25"/>
-    <hyperlink ref="M77" r:id="rId26"/>
-    <hyperlink ref="M86" r:id="rId27"/>
-    <hyperlink ref="M87:M88" r:id="rId28" display="https://srpu.atlassian.net/browse/SGCM-507"/>
+    <hyperlink ref="M22" r:id="rId4"/>
+    <hyperlink ref="M26" r:id="rId5"/>
+    <hyperlink ref="M27:M28" r:id="rId6" display="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <hyperlink ref="M32" r:id="rId7"/>
+    <hyperlink ref="M33:M34" r:id="rId8" display="https://srpu.atlassian.net/browse/SGCM-492"/>
+    <hyperlink ref="M38" r:id="rId9"/>
+    <hyperlink ref="M39:M40" r:id="rId10" display="https://srpu.atlassian.net/browse/SGCM-493"/>
+    <hyperlink ref="M43" r:id="rId11"/>
+    <hyperlink ref="M44:M45" r:id="rId12" display="https://srpu.atlassian.net/browse/SGCM-494"/>
+    <hyperlink ref="M49" r:id="rId13"/>
+    <hyperlink ref="M50:M51" r:id="rId14" display="https://srpu.atlassian.net/browse/SGCM-496"/>
+    <hyperlink ref="M54" r:id="rId15"/>
+    <hyperlink ref="M55:M56" r:id="rId16" display="https://srpu.atlassian.net/browse/SGCM-497"/>
+    <hyperlink ref="M60" r:id="rId17"/>
+    <hyperlink ref="M61:M62" r:id="rId18" display="https://srpu.atlassian.net/browse/SGCM-498"/>
+    <hyperlink ref="M66" r:id="rId19"/>
+    <hyperlink ref="M67:M68" r:id="rId20" display="https://srpu.atlassian.net/browse/SGCM-499"/>
+    <hyperlink ref="M72" r:id="rId21"/>
+    <hyperlink ref="M73:M74" r:id="rId22" display="https://srpu.atlassian.net/browse/SGCM-500"/>
+    <hyperlink ref="M79" r:id="rId23"/>
+    <hyperlink ref="M85" r:id="rId24"/>
+    <hyperlink ref="M86" r:id="rId25"/>
+    <hyperlink ref="M87" r:id="rId26"/>
+    <hyperlink ref="M98" r:id="rId27"/>
+    <hyperlink ref="M99:M100" r:id="rId28" display="https://srpu.atlassian.net/browse/SGCM-507"/>
+    <hyperlink ref="M16" r:id="rId29"/>
+    <hyperlink ref="N14" r:id="rId30"/>
+    <hyperlink ref="N21" r:id="rId31"/>
+    <hyperlink ref="N26" r:id="rId32"/>
+    <hyperlink ref="N32" r:id="rId33"/>
+    <hyperlink ref="N38" r:id="rId34"/>
+    <hyperlink ref="N43" r:id="rId35"/>
+    <hyperlink ref="N49" r:id="rId36"/>
+    <hyperlink ref="N54" r:id="rId37"/>
+    <hyperlink ref="N60" r:id="rId38"/>
+    <hyperlink ref="N66" r:id="rId39"/>
+    <hyperlink ref="N72" r:id="rId40"/>
+    <hyperlink ref="N79" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+  <legacyDrawing r:id="rId43"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -9692,19 +10200,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L21 L24:L26 L29:L30 L34:L36 L39:L41 L44:L46 L49:L51 L54:L56 L59:L61 L64:L66 L70:L72 L75:L77 L86:L88</xm:sqref>
+          <xm:sqref>L8:L22 L26:L28 L32:L33 L38:L40 L43:L45 L49:L51 L54:L56 L60:L62 L66:L68 L72:L74 L79:L81 L85:L87 L98:L100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K21 K24:K26 K29:K30 K34:K36 K39:K41 K44:K46 K49:K51 K54:K56 K59:K61 K64:K66 K70:K72 K75:K77 K86:K88</xm:sqref>
+          <xm:sqref>K7:K22 K26:K28 K32:K33 K38:K40 K43:K45 K49:K51 K54:K56 K60:K62 K66:K68 K72:K74 K79:K81 K85:K87 K98:K100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G89</xm:sqref>
+          <xm:sqref>G7:G101</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="166">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -674,6 +674,18 @@
   </si>
   <si>
     <t>https://srpu.atlassian.net/browse/SGCM-606</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-522</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-506</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-608</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-609</t>
   </si>
 </sst>
 </file>
@@ -772,7 +784,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,18 +801,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1022,7 +1022,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1063,16 +1063,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,68 +1137,32 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -7241,10 +7216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:A96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7265,99 +7240,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -7616,200 +7591,200 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53">
+    <row r="13" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
         <v>7</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59">
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25">
         <v>45127</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54" t="s">
+    <row r="14" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="29">
         <v>45138</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54" t="s">
+    <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="62"/>
-    </row>
-    <row r="16" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54" t="s">
+      <c r="N15" s="30"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="62"/>
-    </row>
-    <row r="17" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54" t="s">
+      <c r="N16" s="30"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59">
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25">
         <v>45128</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="57" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54" t="s">
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
+      <c r="A19" s="51">
         <v>8</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -7825,15 +7800,15 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -7849,15 +7824,15 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -7876,23 +7851,23 @@
       <c r="M21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="43" t="s">
+      <c r="N21" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="O21" s="62">
+      <c r="O21" s="29">
         <v>45138</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -7910,19 +7885,19 @@
       <c r="M22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="62"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="54" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -7931,48 +7906,48 @@
       <c r="I23" t="s">
         <v>81</v>
       </c>
-      <c r="O23" s="62"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="54" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="23" t="s">
         <v>147</v>
       </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="A25" s="51">
         <v>9</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -7986,15 +7961,15 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H26" t="s">
@@ -8012,23 +7987,23 @@
       <c r="M26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="61" t="s">
+      <c r="N26" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="O26" s="62">
+      <c r="O26" s="29">
         <v>45138</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="s">
@@ -8046,19 +8021,19 @@
       <c r="M27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H28" t="s">
@@ -8076,19 +8051,19 @@
       <c r="M28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="62"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H29" t="s">
@@ -8097,42 +8072,42 @@
       <c r="I29" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="62">
+      <c r="N29" s="28"/>
+      <c r="O29" s="29">
         <v>45139</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H30" t="s">
         <v>146</v>
       </c>
-      <c r="O30" s="62"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="48">
         <v>10</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -8147,14 +8122,14 @@
       <c r="I31" t="s">
         <v>77</v>
       </c>
-      <c r="O31" s="62"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
@@ -8176,19 +8151,19 @@
       <c r="M32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="62">
+      <c r="O32" s="29">
         <v>45139</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="3" t="s">
         <v>28</v>
       </c>
@@ -8210,15 +8185,15 @@
       <c r="M33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="62"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="231" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="3" t="s">
         <v>29</v>
       </c>
@@ -8234,15 +8209,15 @@
       <c r="M34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N34" s="43"/>
-      <c r="O34" s="62"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="3" t="s">
         <v>30</v>
       </c>
@@ -8257,11 +8232,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="3" t="s">
         <v>145</v>
       </c>
@@ -8275,1304 +8250,1291 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="44">
+    <row r="37" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54">
         <v>11</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="49" t="s">
+      <c r="H37" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="65">
+      <c r="O37" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="48" t="s">
+    <row r="38" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="49" t="s">
+      <c r="I38" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49" t="s">
+      <c r="K38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="49" t="s">
+      <c r="L38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="63" t="s">
+      <c r="M38" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="O38" s="47"/>
-    </row>
-    <row r="39" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48" t="s">
+      <c r="O38" s="51"/>
+    </row>
+    <row r="39" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="54"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="49" t="s">
+      <c r="I39" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49" t="s">
+      <c r="K39" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L39" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="63" t="s">
+      <c r="M39" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="N39" s="64"/>
-      <c r="O39" s="47"/>
-    </row>
-    <row r="40" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="51"/>
+    </row>
+    <row r="40" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="54"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49" t="s">
+      <c r="K40" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="49" t="s">
+      <c r="L40" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="63" t="s">
+      <c r="M40" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="64"/>
-      <c r="O40" s="47"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48" t="s">
+      <c r="N40" s="56"/>
+      <c r="O40" s="51"/>
+    </row>
+    <row r="41" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="49" t="s">
+      <c r="I41" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="47"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="51">
         <v>12</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="54" t="s">
+      <c r="F42" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54" t="s">
+    <row r="43" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N43" s="61" t="s">
+      <c r="N43" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="O43" s="66">
+      <c r="O43" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54" t="s">
+    <row r="44" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N44" s="61"/>
-      <c r="O44" s="66"/>
-    </row>
-    <row r="45" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54" t="s">
+      <c r="N44" s="56"/>
+      <c r="O44" s="29"/>
+    </row>
+    <row r="45" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="N45" s="61"/>
-      <c r="O45" s="66"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="54" t="s">
+      <c r="N45" s="56"/>
+      <c r="O45" s="29"/>
+    </row>
+    <row r="46" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54" t="s">
+    <row r="47" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="50">
+    <row r="48" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="54">
         <v>13</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="52" t="s">
+      <c r="D48" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="54" t="s">
+      <c r="F48" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54" t="s">
+    <row r="49" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="43" t="s">
+      <c r="N49" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="O49" s="66">
+      <c r="O49" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54" t="s">
+    <row r="50" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="54"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="43"/>
-      <c r="O50" s="66"/>
-    </row>
-    <row r="51" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54" t="s">
+      <c r="N50" s="30"/>
+      <c r="O50" s="29"/>
+    </row>
+    <row r="51" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="N51" s="43"/>
-      <c r="O51" s="66"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54" t="s">
+      <c r="N51" s="30"/>
+      <c r="O51" s="29"/>
+    </row>
+    <row r="52" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="54"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="53">
+    <row r="53" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="51">
         <v>14</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54" t="s">
+    <row r="54" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O54" s="66">
+      <c r="O54" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="54" t="s">
+    <row r="55" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="N55" s="43"/>
-      <c r="O55" s="66"/>
-    </row>
-    <row r="56" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="54" t="s">
+      <c r="N55" s="30"/>
+      <c r="O55" s="29"/>
+    </row>
+    <row r="56" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="N56" s="43"/>
-      <c r="O56" s="66"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54" t="s">
+      <c r="N56" s="30"/>
+      <c r="O56" s="29"/>
+    </row>
+    <row r="57" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="54" t="s">
+    <row r="58" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="52">
+    <row r="59" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="53">
         <v>15</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54" t="s">
+    <row r="60" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="N60" s="43" t="s">
+      <c r="N60" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="O60" s="66">
+      <c r="O60" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="54" t="s">
+    <row r="61" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="53"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="M61" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="N61" s="43"/>
-      <c r="O61" s="66"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="54" t="s">
+      <c r="N61" s="30"/>
+      <c r="O61" s="29"/>
+    </row>
+    <row r="62" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M62" s="6" t="s">
+      <c r="M62" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="N62" s="43"/>
-      <c r="O62" s="66"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="54" t="s">
+      <c r="N62" s="30"/>
+      <c r="O62" s="29"/>
+    </row>
+    <row r="63" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="54" t="s">
+    <row r="64" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="53">
+    <row r="65" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="51">
         <v>16</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="54" t="s">
+    <row r="66" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="55" t="s">
+      <c r="G66" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L66" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="6" t="s">
+      <c r="M66" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="N66" s="43" t="s">
+      <c r="N66" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="O66" s="66">
+      <c r="O66" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="54" t="s">
+    <row r="67" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="55" t="s">
+      <c r="G67" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="M67" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="N67" s="43"/>
-      <c r="O67" s="66"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="54" t="s">
+      <c r="N67" s="30"/>
+      <c r="O67" s="29"/>
+    </row>
+    <row r="68" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="M68" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="43"/>
-      <c r="O68" s="66"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54" t="s">
+      <c r="N68" s="30"/>
+      <c r="O68" s="29"/>
+    </row>
+    <row r="69" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="53"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="54" t="s">
+    <row r="70" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="53">
+    <row r="71" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="51">
         <v>17</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="54" t="s">
+    <row r="72" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M72" s="6" t="s">
+      <c r="M72" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N72" s="43" t="s">
+      <c r="N72" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="O72" s="66">
+      <c r="O72" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="54" t="s">
+    <row r="73" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M73" s="6" t="s">
+      <c r="M73" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N73" s="43"/>
-      <c r="O73" s="66"/>
-    </row>
-    <row r="74" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="53"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="54" t="s">
+      <c r="N73" s="30"/>
+      <c r="O73" s="29"/>
+    </row>
+    <row r="74" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="55" t="s">
+      <c r="G74" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="N74" s="43"/>
-      <c r="O74" s="66"/>
-    </row>
-    <row r="75" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="54" t="s">
+      <c r="N74" s="30"/>
+      <c r="O74" s="29"/>
+    </row>
+    <row r="75" spans="1:15" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="53"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="54" t="s">
+    <row r="76" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="53"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="54" t="s">
+    <row r="77" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="51"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="53">
+    <row r="78" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="51">
         <v>18</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="54" t="s">
+    <row r="79" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="51"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M79" s="6" t="s">
+      <c r="M79" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="N79" s="43" t="s">
+      <c r="N79" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O79" s="66">
+      <c r="O79" s="29">
         <v>45139</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="54" t="s">
+    <row r="80" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="51"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N80" s="43"/>
-      <c r="O80" s="66"/>
-    </row>
-    <row r="81" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="54" t="s">
+      <c r="N80" s="30"/>
+      <c r="O80" s="29"/>
+    </row>
+    <row r="81" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="51"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="55" t="s">
+      <c r="G81" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N81" s="43"/>
-      <c r="O81" s="66"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="54" t="s">
+      <c r="N81" s="30"/>
+      <c r="O81" s="29"/>
+    </row>
+    <row r="82" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="54" t="s">
+    <row r="83" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="25">
+      <c r="A84" s="48">
         <v>19</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="25" t="s">
+      <c r="E84" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -9589,19 +9551,19 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="25"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I85" t="s">
         <v>78</v>
@@ -9615,17 +9577,19 @@
       <c r="M85" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N85" s="6"/>
-      <c r="O85" s="1">
-        <v>45131</v>
+      <c r="N85" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="O85" s="27">
+        <v>45140</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="3" t="s">
         <v>28</v>
       </c>
@@ -9647,17 +9611,15 @@
       <c r="M86" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N86" s="6"/>
-      <c r="O86" s="1">
-        <v>45131</v>
-      </c>
+      <c r="N86" s="28"/>
+      <c r="O86" s="27"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="3" t="s">
         <v>29</v>
       </c>
@@ -9679,17 +9641,15 @@
       <c r="M87" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="N87" s="6"/>
-      <c r="O87" s="1">
-        <v>45131</v>
-      </c>
+      <c r="N87" s="28"/>
+      <c r="O87" s="27"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="48"/>
       <c r="F88" s="3" t="s">
         <v>30</v>
       </c>
@@ -9704,11 +9664,11 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="3" t="s">
         <v>145</v>
       </c>
@@ -9723,19 +9683,19 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="25">
+      <c r="A90" s="48">
         <v>20</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="25" t="s">
+      <c r="E90" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -9752,11 +9712,11 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="3" t="s">
         <v>27</v>
       </c>
@@ -9769,13 +9729,28 @@
       <c r="I91" t="s">
         <v>78</v>
       </c>
+      <c r="K91" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" t="s">
+        <v>36</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N91" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O91" s="27">
+        <v>45140</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="3" t="s">
         <v>28</v>
       </c>
@@ -9788,13 +9763,24 @@
       <c r="I92" t="s">
         <v>79</v>
       </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N92" s="48"/>
+      <c r="O92" s="27"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="3" t="s">
         <v>29</v>
       </c>
@@ -9807,13 +9793,24 @@
       <c r="I93" t="s">
         <v>80</v>
       </c>
+      <c r="K93" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N93" s="48"/>
+      <c r="O93" s="27"/>
     </row>
     <row r="94" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="48"/>
       <c r="F94" s="3" t="s">
         <v>116</v>
       </c>
@@ -9828,11 +9825,11 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="48"/>
       <c r="F95" s="3" t="s">
         <v>30</v>
       </c>
@@ -9847,11 +9844,11 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="48"/>
       <c r="F96" s="3" t="s">
         <v>145</v>
       </c>
@@ -9866,19 +9863,19 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="22">
+      <c r="A97" s="48">
         <v>21</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -9898,19 +9895,19 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="48"/>
       <c r="F98" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I98" t="s">
         <v>78</v>
@@ -9924,17 +9921,19 @@
       <c r="M98" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N98" s="6"/>
-      <c r="O98" s="1">
-        <v>45131</v>
+      <c r="N98" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O98" s="27">
+        <v>45140</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="48"/>
       <c r="F99" s="3" t="s">
         <v>28</v>
       </c>
@@ -9956,17 +9955,15 @@
       <c r="M99" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="6"/>
-      <c r="O99" s="1">
-        <v>45131</v>
-      </c>
+      <c r="N99" s="26"/>
+      <c r="O99" s="27"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="48"/>
       <c r="F100" s="3" t="s">
         <v>29</v>
       </c>
@@ -9988,17 +9985,15 @@
       <c r="M100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N100" s="6"/>
-      <c r="O100" s="1">
-        <v>45131</v>
-      </c>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
+      <c r="A101" s="48"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="48"/>
       <c r="F101" s="3" t="s">
         <v>30</v>
       </c>
@@ -10012,7 +10007,29 @@
         <v>81</v>
       </c>
       <c r="O101" s="1">
-        <v>45131</v>
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="48"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+      <c r="O102" s="1">
+        <v>45140</v>
       </c>
     </row>
   </sheetData>
@@ -10032,16 +10049,86 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
-  <mergeCells count="107">
-    <mergeCell ref="N72:N74"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="N79:N81"/>
-    <mergeCell ref="O79:O81"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D65:D70"/>
+  <mergeCells count="113">
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="N91:N93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="E97:E102"/>
+    <mergeCell ref="D97:D102"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="C90:C96"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O37:O41"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="D31:D36"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="O60:O62"/>
     <mergeCell ref="B59:B64"/>
@@ -10056,56 +10143,6 @@
     <mergeCell ref="C53:C58"/>
     <mergeCell ref="N54:N56"/>
     <mergeCell ref="O54:O56"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O37:O41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:O4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A42:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="C48:C52"/>
@@ -10115,31 +10152,17 @@
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="A65:A70"/>
+    <mergeCell ref="N72:N74"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D65:D70"/>
     <mergeCell ref="E71:E77"/>
     <mergeCell ref="D71:D77"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="E78:E83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="D84:D89"/>
-    <mergeCell ref="E84:E89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="E90:E96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -10183,13 +10206,19 @@
     <hyperlink ref="N66" r:id="rId39"/>
     <hyperlink ref="N72" r:id="rId40"/>
     <hyperlink ref="N79" r:id="rId41"/>
+    <hyperlink ref="N85" r:id="rId42"/>
+    <hyperlink ref="M91" r:id="rId43"/>
+    <hyperlink ref="M92" r:id="rId44"/>
+    <hyperlink ref="M93" r:id="rId45"/>
+    <hyperlink ref="N91" r:id="rId46"/>
+    <hyperlink ref="N98" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
-  <legacyDrawing r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
@@ -10200,19 +10229,19 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L22 L26:L28 L32:L33 L38:L40 L43:L45 L49:L51 L54:L56 L60:L62 L66:L68 L72:L74 L79:L81 L85:L87 L98:L100</xm:sqref>
+          <xm:sqref>L8:L22 L26:L28 L32:L33 L38:L40 L43:L45 L49:L51 L54:L56 L60:L62 L66:L68 L72:L74 L79:L81 L85:L87 L98:L100 L91:L93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K22 K26:K28 K32:K33 K38:K40 K43:K45 K49:K51 K54:K56 K60:K62 K66:K68 K72:K74 K79:K81 K85:K87 K98:K100</xm:sqref>
+          <xm:sqref>K7:K22 K26:K28 K32:K33 K38:K40 K43:K45 K49:K51 K54:K56 K60:K62 K66:K68 K72:K74 K79:K81 K85:K87 K98:K100 K91:K93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G101</xm:sqref>
+          <xm:sqref>G7:G102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matriz de Pruebas Configuración.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="166">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -1071,20 +1071,37 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,32 +1154,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -1294,6 +1294,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1787,7 +1788,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1851,7 +1854,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1915,7 +1920,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2036,7 +2043,9 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000021-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
@@ -2044,27 +2053,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.3830635702556925E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-6.0051606849636403E-2"/>
@@ -2078,9 +2066,11 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2139,16 +2129,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$7</c:f>
+              <c:f>GRAFICOS!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Pendiente</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -2156,18 +2143,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$7</c:f>
+              <c:f>GRAFICOS!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,6 +2325,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2569,7 +2554,7 @@
                   <c:v>Tarea por hacer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>En Curso</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2735,6 +2720,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3535,6 +3521,44 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3696,7 +3720,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,7 +3740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>En Curso</c:v>
+                  <c:v>Finalizada </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3775,7 +3799,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5998,11 +6022,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45132.664130787038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45141.739965972221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="42">
   <cacheSource type="worksheet">
     <worksheetSource ref="A6:O48" sheet="Catálogos"/>
   </cacheSource>
-  <cacheFields count="14">
+  <cacheFields count="15">
     <cacheField name="N° Caso" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
     </cacheField>
@@ -6025,15 +6049,15 @@
       <sharedItems containsBlank="1" count="4">
         <s v="Realizado"/>
         <s v="Error"/>
-        <s v="Pendiente"/>
         <m u="1"/>
+        <s v="Pendiente" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
       <sharedItems longText="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="N° de Indicente" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6046,17 +6070,21 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <m/>
-        <s v="En Curso"/>
+        <s v="Finalizada "/>
         <s v="Tarea por hacer"/>
+        <s v="En Curso" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="N° de Retesting Jira " numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-20T00:00:00" maxDate="2023-07-22T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-07-20T00:00:00" maxDate="2023-08-02T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6068,7 +6096,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
@@ -6082,6 +6110,7 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
@@ -6099,6 +6128,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6115,6 +6145,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6131,6 +6162,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6147,6 +6179,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6163,6 +6196,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6179,6 +6213,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-20T00:00:00"/>
   </r>
   <r>
@@ -6188,14 +6223,15 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="1"/>
-    <s v="No permite agregar un nuevo registro arroja mensaje de error"/>
+    <x v="0"/>
+    <s v="Agrega nuevo regristro "/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
     <x v="1"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
-    <d v="2023-07-21T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-592"/>
+    <d v="2023-07-31T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6204,14 +6240,15 @@
     <m/>
     <m/>
     <s v="Eliminar"/>
+    <x v="0"/>
+    <s v="Elimina Elemento Ajusta color del botón "/>
+    <s v="Eliminar Registro "/>
+    <m/>
     <x v="1"/>
-    <s v="Se intento borrar un registro ya realizado previamente pero no se guardaron los cambios y no se borro el registro requerido _x000a_ Envía mensaje de confirmación exitosa _x000a_Ajustar el color del botón Eliminar _x000a_Borrar la el apostrofe que esta antes del signo de interrogación cerrado "/>
-    <s v="Eliminar Registro "/>
-    <m/>
     <x v="1"/>
-    <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6220,14 +6257,15 @@
     <m/>
     <m/>
     <s v="Editar"/>
+    <x v="0"/>
+    <s v="Edita elemento /Ajustar color del botón"/>
+    <s v="Editar Registro "/>
+    <m/>
     <x v="1"/>
-    <s v="Se intento editar un registro ya realizado previamente pero no se guardaron los cambios _x000a_ Envía mensaje de confirmación exitosa _x000a_Ajustar el color del botón editar"/>
-    <s v="Editar Registro "/>
-    <m/>
     <x v="1"/>
-    <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-487"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6243,7 +6281,25 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-21T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Elementos correctamente , agregar un tooltip descriptivo "/>
+    <s v="Buscar elementos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="8"/>
@@ -6259,6 +6315,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
@@ -6275,6 +6332,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
+    <m/>
     <d v="2023-07-21T00:00:00"/>
   </r>
   <r>
@@ -6289,9 +6347,10 @@
     <s v="Eliminar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-488"/>
-    <d v="2023-07-21T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-593"/>
+    <d v="2023-07-31T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6305,9 +6364,10 @@
     <s v="Editar Registro "/>
     <m/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-488"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6316,14 +6376,32 @@
     <m/>
     <m/>
     <s v="Ortografía"/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Definir mayúsculas y Minúsculas "/>
     <s v="Sin Faltas de Ortografía"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Elementos correctamente , agregar un tooltip descriptivo "/>
+    <s v="Buscar elementos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="9"/>
@@ -6332,12 +6410,13 @@
     <s v="Administrador "/>
     <s v="irisqa"/>
     <s v="Ingresar "/>
-    <x v="2"/>
+    <x v="0"/>
     <s v="Ingresa al catálogo correspondiente "/>
     <s v="Ingresar al apartado correctamente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <d v="2023-07-21T00:00:00"/>
   </r>
@@ -6348,14 +6427,32 @@
     <m/>
     <m/>
     <s v="Agregar"/>
+    <x v="0"/>
+    <s v="Agrega nuevo regristro "/>
+    <s v="Agregar Registro "/>
+    <m/>
     <x v="1"/>
-    <s v="Ajustar redacción mensajes de alertas"/>
-    <s v="Agregar Registro "/>
+    <x v="1"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-594"/>
+    <d v="2023-07-31T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Eliminar"/>
+    <x v="1"/>
+    <s v="Ajustar redacción mensajes de alertas / color del botón "/>
+    <s v="Eliminar Registro "/>
     <m/>
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6363,31 +6460,16 @@
     <m/>
     <m/>
     <m/>
-    <s v="Eliminar"/>
+    <s v="Editar"/>
     <x v="1"/>
-    <s v="Ajustar redacción mensajes de alertas"/>
-    <s v="Eliminar Registro "/>
+    <s v="Ajustar redacción mensajes de alertas / color del botón "/>
+    <s v="Editar Registro "/>
     <m/>
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
-    <d v="2023-07-21T00:00:00"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Editar"/>
-    <x v="1"/>
-    <s v="Ajustar redacción mensajes de alertas"/>
-    <s v="Editar Registro "/>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="https://srpu.atlassian.net/browse/SGCM-489"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6403,7 +6485,25 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <d v="2023-08-01T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Elementos correctamente , agregar un tooltip descriptivo "/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="10"/>
@@ -6419,7 +6519,8 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6429,13 +6530,14 @@
     <m/>
     <s v="Agregar"/>
     <x v="1"/>
-    <s v="tooltip descriptivo "/>
+    <s v="Agrega nuevo regristro "/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
-    <d v="2023-07-21T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-595"/>
+    <d v="2023-08-01T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6451,7 +6553,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6467,7 +6570,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-492"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6482,6 +6586,24 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Elementos correctamente , agregar un tooltip descriptivo "/>
+    <s v="Buscar elementos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -6500,6 +6622,7 @@
     <x v="0"/>
     <m/>
     <m/>
+    <d v="2023-08-01T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6515,7 +6638,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
-    <d v="2023-07-21T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-598"/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6531,7 +6655,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6547,7 +6672,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-493"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6562,6 +6688,7 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -6580,6 +6707,7 @@
     <x v="0"/>
     <m/>
     <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6588,14 +6716,15 @@
     <m/>
     <m/>
     <s v="Agregar"/>
-    <x v="1"/>
-    <s v="Ajustar el mensaje de alerta cuando no se agrega información en los campos y das clic en botón aceptar"/>
+    <x v="0"/>
+    <s v="Agrega nuevo regristro "/>
     <s v="Agregar Registro "/>
     <m/>
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
-    <d v="2023-07-21T00:00:00"/>
+    <s v="https://srpu.atlassian.net/browse/SGCM-599"/>
+    <d v="2023-08-01T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -6611,7 +6740,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6627,7 +6757,8 @@
     <x v="1"/>
     <x v="2"/>
     <s v="https://srpu.atlassian.net/browse/SGCM-494"/>
-    <d v="2023-07-21T00:00:00"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
@@ -6642,6 +6773,24 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Busca Elementos correctamente , agregar un tooltip descriptivo "/>
+    <s v="Buscar elementos "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -6660,14 +6809,15 @@
     <x v="0"/>
     <m/>
     <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+  <pivotFields count="15">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6680,14 +6830,16 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="2"/>
+        <item m="1" x="3"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -6701,7 +6853,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -6737,9 +6889,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6749,9 +6901,9 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6761,17 +6913,15 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -6846,9 +6996,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:E51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6868,14 +7018,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item x="2"/>
+        <item m="1" x="3"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -6903,7 +7055,7 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -6912,7 +7064,7 @@
   <dataFields count="1">
     <dataField name="Cuenta de Estatus Incidente" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="0" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6954,6 +7106,18 @@
           </reference>
           <reference field="11" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -7218,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
@@ -7240,99 +7404,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -7592,19 +7756,19 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
+      <c r="A13" s="36">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -7626,11 +7790,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="22" t="s">
         <v>27</v>
       </c>
@@ -7652,19 +7816,19 @@
       <c r="M14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="57">
         <v>45138</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="51"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="22" t="s">
         <v>28</v>
       </c>
@@ -7686,15 +7850,15 @@
       <c r="M15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="29"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="22" t="s">
         <v>29</v>
       </c>
@@ -7716,15 +7880,15 @@
       <c r="M16" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="29"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="51"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="22" t="s">
         <v>30</v>
       </c>
@@ -7744,11 +7908,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="22" t="s">
         <v>145</v>
       </c>
@@ -7766,19 +7930,19 @@
       <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+      <c r="A19" s="36">
         <v>8</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -7800,11 +7964,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="22" t="s">
         <v>27</v>
       </c>
@@ -7824,11 +7988,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="22" t="s">
         <v>28</v>
       </c>
@@ -7851,19 +8015,19 @@
       <c r="M21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="57">
         <v>45138</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="22" t="s">
         <v>29</v>
       </c>
@@ -7885,15 +8049,15 @@
       <c r="M22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="29"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22" t="s">
         <v>30</v>
       </c>
@@ -7906,14 +8070,14 @@
       <c r="I23" t="s">
         <v>81</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="22" t="s">
         <v>145</v>
       </c>
@@ -7929,19 +8093,19 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
+      <c r="A25" s="36">
         <v>9</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="22" t="s">
@@ -7961,11 +8125,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="22" t="s">
         <v>27</v>
       </c>
@@ -7990,16 +8154,16 @@
       <c r="N26" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="57">
         <v>45138</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="22" t="s">
         <v>28</v>
       </c>
@@ -8022,14 +8186,14 @@
         <v>94</v>
       </c>
       <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="51"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="22" t="s">
         <v>29</v>
       </c>
@@ -8052,14 +8216,14 @@
         <v>94</v>
       </c>
       <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="57"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="22" t="s">
         <v>30</v>
       </c>
@@ -8073,16 +8237,16 @@
         <v>81</v>
       </c>
       <c r="N29" s="28"/>
-      <c r="O29" s="29">
+      <c r="O29" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="51"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="22" t="s">
         <v>145</v>
       </c>
@@ -8092,22 +8256,22 @@
       <c r="H30" t="s">
         <v>146</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="57"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="48">
+      <c r="A31" s="31">
         <v>10</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -8122,14 +8286,14 @@
       <c r="I31" t="s">
         <v>77</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="3" t="s">
         <v>27</v>
       </c>
@@ -8151,19 +8315,19 @@
       <c r="M32" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N32" s="26" t="s">
+      <c r="N32" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="48"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="3" t="s">
         <v>28</v>
       </c>
@@ -8185,15 +8349,15 @@
       <c r="M33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="57"/>
     </row>
     <row r="34" spans="1:15" ht="231" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="3" t="s">
         <v>29</v>
       </c>
@@ -8209,15 +8373,15 @@
       <c r="M34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="48"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="3" t="s">
         <v>30</v>
       </c>
@@ -8232,11 +8396,11 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="48"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="3" t="s">
         <v>145</v>
       </c>
@@ -8251,19 +8415,19 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54">
+      <c r="A37" s="37">
         <v>11</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="22" t="s">
@@ -8278,16 +8442,16 @@
       <c r="I37" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="51"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="22" t="s">
         <v>27</v>
       </c>
@@ -8306,20 +8470,20 @@
       <c r="L38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="55" t="s">
+      <c r="M38" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N38" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="O38" s="51"/>
+      <c r="O38" s="36"/>
     </row>
     <row r="39" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="51"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="22" t="s">
         <v>28</v>
       </c>
@@ -8338,18 +8502,18 @@
       <c r="L39" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N39" s="56"/>
-      <c r="O39" s="51"/>
+      <c r="O39" s="36"/>
     </row>
     <row r="40" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="51"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="22" t="s">
         <v>29</v>
       </c>
@@ -8368,18 +8532,18 @@
       <c r="L40" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N40" s="56"/>
-      <c r="O40" s="51"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="51"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="22" t="s">
         <v>30</v>
       </c>
@@ -8392,22 +8556,22 @@
       <c r="I41" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="O41" s="51"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51">
+      <c r="A42" s="36">
         <v>12</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -8424,11 +8588,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="51"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="22" t="s">
         <v>27</v>
       </c>
@@ -8447,22 +8611,22 @@
       <c r="L43" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="55" t="s">
+      <c r="M43" s="26" t="s">
         <v>105</v>
       </c>
       <c r="N43" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="22" t="s">
         <v>28</v>
       </c>
@@ -8481,18 +8645,18 @@
       <c r="L44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M44" s="55" t="s">
+      <c r="M44" s="26" t="s">
         <v>105</v>
       </c>
       <c r="N44" s="56"/>
-      <c r="O44" s="29"/>
+      <c r="O44" s="57"/>
     </row>
     <row r="45" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="22" t="s">
         <v>29</v>
       </c>
@@ -8511,18 +8675,18 @@
       <c r="L45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="55" t="s">
+      <c r="M45" s="26" t="s">
         <v>105</v>
       </c>
       <c r="N45" s="56"/>
-      <c r="O45" s="29"/>
+      <c r="O45" s="57"/>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="51"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="22" t="s">
         <v>30</v>
       </c>
@@ -8537,11 +8701,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="51"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="22" t="s">
         <v>145</v>
       </c>
@@ -8556,19 +8720,19 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="54">
+      <c r="A48" s="37">
         <v>13</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="22" t="s">
@@ -8585,11 +8749,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="51"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="36"/>
       <c r="F49" s="22" t="s">
         <v>27</v>
       </c>
@@ -8608,22 +8772,22 @@
       <c r="L49" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M49" s="55" t="s">
+      <c r="M49" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N49" s="30" t="s">
+      <c r="N49" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="51"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="22" t="s">
         <v>28</v>
       </c>
@@ -8642,18 +8806,18 @@
       <c r="L50" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="55" t="s">
+      <c r="M50" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="29"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="57"/>
     </row>
     <row r="51" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="51"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="22" t="s">
         <v>29</v>
       </c>
@@ -8672,18 +8836,18 @@
       <c r="L51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M51" s="55" t="s">
+      <c r="M51" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="29"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="57"/>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="51"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="22" t="s">
         <v>145</v>
       </c>
@@ -8698,19 +8862,19 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51">
+      <c r="A53" s="36">
         <v>14</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="22" t="s">
@@ -8727,11 +8891,11 @@
       </c>
     </row>
     <row r="54" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="51"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="22" t="s">
         <v>27</v>
       </c>
@@ -8750,22 +8914,22 @@
       <c r="L54" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M54" s="55" t="s">
+      <c r="M54" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="51"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="22" t="s">
         <v>28</v>
       </c>
@@ -8784,18 +8948,18 @@
       <c r="L55" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M55" s="55" t="s">
+      <c r="M55" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="29"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="57"/>
     </row>
     <row r="56" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="51"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="22" t="s">
         <v>29</v>
       </c>
@@ -8814,18 +8978,18 @@
       <c r="L56" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M56" s="55" t="s">
+      <c r="M56" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="29"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="57"/>
     </row>
     <row r="57" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="51"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="22" t="s">
         <v>30</v>
       </c>
@@ -8840,11 +9004,11 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="51"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="22" t="s">
         <v>145</v>
       </c>
@@ -8859,19 +9023,19 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53">
+      <c r="A59" s="34">
         <v>15</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="22" t="s">
@@ -8888,11 +9052,11 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="22" t="s">
         <v>27</v>
       </c>
@@ -8911,29 +9075,29 @@
       <c r="L60" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M60" s="55" t="s">
+      <c r="M60" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="N60" s="30" t="s">
+      <c r="N60" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="O60" s="29">
+      <c r="O60" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="51"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="22" t="s">
         <v>28</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="27" t="s">
         <v>110</v>
       </c>
       <c r="I61" s="23" t="s">
@@ -8945,18 +9109,18 @@
       <c r="L61" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M61" s="55" t="s">
+      <c r="M61" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="N61" s="30"/>
-      <c r="O61" s="29"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="57"/>
     </row>
     <row r="62" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="51"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="22" t="s">
         <v>29</v>
       </c>
@@ -8975,18 +9139,18 @@
       <c r="L62" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M62" s="55" t="s">
+      <c r="M62" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="N62" s="30"/>
-      <c r="O62" s="29"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="57"/>
     </row>
     <row r="63" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="51"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="22" t="s">
         <v>30</v>
       </c>
@@ -9001,11 +9165,11 @@
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="51"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="22" t="s">
         <v>145</v>
       </c>
@@ -9020,19 +9184,19 @@
       </c>
     </row>
     <row r="65" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="51">
+      <c r="A65" s="36">
         <v>16</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="22" t="s">
@@ -9049,11 +9213,11 @@
       </c>
     </row>
     <row r="66" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="51"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="22" t="s">
         <v>27</v>
       </c>
@@ -9072,22 +9236,22 @@
       <c r="L66" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="55" t="s">
+      <c r="M66" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="N66" s="30" t="s">
+      <c r="N66" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="O66" s="29">
+      <c r="O66" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="51"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="22" t="s">
         <v>28</v>
       </c>
@@ -9106,18 +9270,18 @@
       <c r="L67" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M67" s="55" t="s">
+      <c r="M67" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="N67" s="30"/>
-      <c r="O67" s="29"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="57"/>
     </row>
     <row r="68" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="51"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="22" t="s">
         <v>29</v>
       </c>
@@ -9136,18 +9300,18 @@
       <c r="L68" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="55" t="s">
+      <c r="M68" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="N68" s="30"/>
-      <c r="O68" s="29"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="69" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="51"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="22" t="s">
         <v>30</v>
       </c>
@@ -9162,11 +9326,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="51"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="22" t="s">
         <v>145</v>
       </c>
@@ -9181,19 +9345,19 @@
       </c>
     </row>
     <row r="71" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="51">
+      <c r="A71" s="36">
         <v>17</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="22" t="s">
@@ -9210,11 +9374,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="51"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="22" t="s">
         <v>27</v>
       </c>
@@ -9233,22 +9397,22 @@
       <c r="L72" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M72" s="55" t="s">
+      <c r="M72" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N72" s="30" t="s">
+      <c r="N72" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="O72" s="29">
+      <c r="O72" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="51"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="22" t="s">
         <v>28</v>
       </c>
@@ -9267,18 +9431,18 @@
       <c r="L73" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M73" s="55" t="s">
+      <c r="M73" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N73" s="30"/>
-      <c r="O73" s="29"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="57"/>
     </row>
     <row r="74" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="51"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="22" t="s">
         <v>29</v>
       </c>
@@ -9297,18 +9461,18 @@
       <c r="L74" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M74" s="55" t="s">
+      <c r="M74" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="N74" s="30"/>
-      <c r="O74" s="29"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="57"/>
     </row>
     <row r="75" spans="1:15" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="51"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="22" t="s">
         <v>116</v>
       </c>
@@ -9323,11 +9487,11 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="51"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="51"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="22" t="s">
         <v>30</v>
       </c>
@@ -9342,11 +9506,11 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="51"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="51"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="22" t="s">
         <v>145</v>
       </c>
@@ -9361,19 +9525,19 @@
       </c>
     </row>
     <row r="78" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="51">
+      <c r="A78" s="36">
         <v>18</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D78" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F78" s="22" t="s">
@@ -9390,11 +9554,11 @@
       </c>
     </row>
     <row r="79" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="51"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="51"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="22" t="s">
         <v>27</v>
       </c>
@@ -9413,22 +9577,22 @@
       <c r="L79" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M79" s="55" t="s">
+      <c r="M79" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="N79" s="30" t="s">
+      <c r="N79" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="O79" s="29">
+      <c r="O79" s="57">
         <v>45139</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="51"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="51"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="22" t="s">
         <v>28</v>
       </c>
@@ -9450,15 +9614,15 @@
       <c r="M80" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N80" s="30"/>
-      <c r="O80" s="29"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="57"/>
     </row>
     <row r="81" spans="1:15" s="23" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="51"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="36"/>
       <c r="F81" s="22" t="s">
         <v>29</v>
       </c>
@@ -9480,15 +9644,15 @@
       <c r="M81" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N81" s="30"/>
-      <c r="O81" s="29"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="57"/>
     </row>
     <row r="82" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="51"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="36"/>
       <c r="F82" s="22" t="s">
         <v>30</v>
       </c>
@@ -9503,11 +9667,11 @@
       </c>
     </row>
     <row r="83" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="51"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="51"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="22" t="s">
         <v>145</v>
       </c>
@@ -9522,19 +9686,19 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="48">
+      <c r="A84" s="31">
         <v>19</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -9551,11 +9715,11 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="48"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="31"/>
       <c r="F85" s="3" t="s">
         <v>27</v>
       </c>
@@ -9580,16 +9744,16 @@
       <c r="N85" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="O85" s="27">
+      <c r="O85" s="29">
         <v>45140</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="48"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="31"/>
       <c r="F86" s="3" t="s">
         <v>28</v>
       </c>
@@ -9612,14 +9776,14 @@
         <v>122</v>
       </c>
       <c r="N86" s="28"/>
-      <c r="O86" s="27"/>
+      <c r="O86" s="29"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="48"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="31"/>
       <c r="F87" s="3" t="s">
         <v>29</v>
       </c>
@@ -9642,14 +9806,14 @@
         <v>122</v>
       </c>
       <c r="N87" s="28"/>
-      <c r="O87" s="27"/>
+      <c r="O87" s="29"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="48"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="48"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="31"/>
       <c r="F88" s="3" t="s">
         <v>30</v>
       </c>
@@ -9664,11 +9828,11 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="48"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="48"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="31"/>
       <c r="F89" s="3" t="s">
         <v>145</v>
       </c>
@@ -9683,19 +9847,19 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="48">
+      <c r="A90" s="31">
         <v>20</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -9712,11 +9876,11 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="48"/>
-      <c r="B91" s="50"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="48"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="3" t="s">
         <v>27</v>
       </c>
@@ -9738,19 +9902,19 @@
       <c r="M91" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N91" s="26" t="s">
+      <c r="N91" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="O91" s="27">
+      <c r="O91" s="29">
         <v>45140</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="48"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="48"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="31"/>
       <c r="F92" s="3" t="s">
         <v>28</v>
       </c>
@@ -9772,15 +9936,15 @@
       <c r="M92" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N92" s="48"/>
-      <c r="O92" s="27"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="29"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="48"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="48"/>
+      <c r="A93" s="31"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="31"/>
       <c r="F93" s="3" t="s">
         <v>29</v>
       </c>
@@ -9802,15 +9966,15 @@
       <c r="M93" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N93" s="48"/>
-      <c r="O93" s="27"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="29"/>
     </row>
     <row r="94" spans="1:15" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="48"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="31"/>
       <c r="F94" s="3" t="s">
         <v>116</v>
       </c>
@@ -9825,11 +9989,11 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="48"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="31"/>
       <c r="F95" s="3" t="s">
         <v>30</v>
       </c>
@@ -9844,11 +10008,11 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="48"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="48"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="31"/>
       <c r="F96" s="3" t="s">
         <v>145</v>
       </c>
@@ -9863,19 +10027,19 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="48">
+      <c r="A97" s="31">
         <v>21</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -9895,11 +10059,11 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="48"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="31"/>
       <c r="F98" s="3" t="s">
         <v>27</v>
       </c>
@@ -9921,19 +10085,19 @@
       <c r="M98" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N98" s="26" t="s">
+      <c r="N98" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="O98" s="27">
+      <c r="O98" s="29">
         <v>45140</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="48"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="3" t="s">
         <v>28</v>
       </c>
@@ -9955,15 +10119,15 @@
       <c r="M99" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N99" s="26"/>
-      <c r="O99" s="27"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="29"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="48"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="48"/>
+      <c r="A100" s="31"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="31"/>
       <c r="F100" s="3" t="s">
         <v>29</v>
       </c>
@@ -9985,15 +10149,15 @@
       <c r="M100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N100" s="26"/>
-      <c r="O100" s="27"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="29"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="48"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="48"/>
+      <c r="A101" s="31"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="31"/>
       <c r="F101" s="3" t="s">
         <v>30</v>
       </c>
@@ -10011,11 +10175,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="48"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="48"/>
+      <c r="A102" s="31"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="31"/>
       <c r="F102" s="3" t="s">
         <v>145</v>
       </c>
@@ -10050,85 +10214,17 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="113">
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="N91:N93"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="O98:O100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="E97:E102"/>
-    <mergeCell ref="D97:D102"/>
-    <mergeCell ref="C97:C102"/>
-    <mergeCell ref="E90:E96"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="C90:C96"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="E78:E83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="D84:D89"/>
-    <mergeCell ref="E84:E89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:O4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O37:O41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="N72:N74"/>
+    <mergeCell ref="N60:N62"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="N66:N68"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E71:E77"/>
+    <mergeCell ref="D71:D77"/>
     <mergeCell ref="C65:C70"/>
     <mergeCell ref="O60:O62"/>
     <mergeCell ref="B59:B64"/>
@@ -10152,17 +10248,85 @@
     <mergeCell ref="A53:A58"/>
     <mergeCell ref="B65:B70"/>
     <mergeCell ref="A65:A70"/>
-    <mergeCell ref="N72:N74"/>
-    <mergeCell ref="N60:N62"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="N79:N81"/>
-    <mergeCell ref="O79:O81"/>
-    <mergeCell ref="N66:N68"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E71:E77"/>
-    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O37:O41"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="N91:N93"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="E97:E102"/>
+    <mergeCell ref="D97:D102"/>
+    <mergeCell ref="C97:C102"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="C90:C96"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -10265,7 +10429,7 @@
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="9.125" customWidth="1"/>
@@ -10287,31 +10451,23 @@
         <v>33</v>
       </c>
       <c r="B4" s="17">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="19">
-        <v>37</v>
+      <c r="B6" s="19">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10338,7 +10494,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B27" s="18"/>
     </row>
@@ -10369,7 +10525,7 @@
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
         <v>35</v>
@@ -10390,10 +10546,10 @@
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D50" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50" s="20">
         <v>16</v>
@@ -10405,10 +10561,10 @@
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E51" s="20">
         <v>16</v>
